--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cgn-F11r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Cgn-F11r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>F11r</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -537,16 +537,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.01130033333333333</v>
+        <v>0.02557233333333333</v>
       </c>
       <c r="H2">
-        <v>0.033901</v>
+        <v>0.07671699999999999</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6935308900902204</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6935308900902204</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.14949</v>
+        <v>40.91514966666667</v>
       </c>
       <c r="N2">
-        <v>63.44847</v>
+        <v>122.745449</v>
       </c>
       <c r="O2">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871414</v>
       </c>
       <c r="P2">
-        <v>0.7650795756208056</v>
+        <v>0.8529192913871415</v>
       </c>
       <c r="Q2">
-        <v>0.23899628683</v>
+        <v>1.046295845659222</v>
       </c>
       <c r="R2">
-        <v>2.15096658147</v>
+        <v>9.416662610932999</v>
       </c>
       <c r="S2">
-        <v>0.7650795756208056</v>
+        <v>0.5915258753308442</v>
       </c>
       <c r="T2">
-        <v>0.7650795756208056</v>
+        <v>0.5915258753308443</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.01130033333333333</v>
+        <v>0.02557233333333333</v>
       </c>
       <c r="H3">
-        <v>0.033901</v>
+        <v>0.07671699999999999</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.6935308900902204</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6935308900902204</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>0.495648</v>
       </c>
       <c r="O3">
-        <v>0.005976663605872625</v>
+        <v>0.00344410114086962</v>
       </c>
       <c r="P3">
-        <v>0.005976663605872626</v>
+        <v>0.003444101140869621</v>
       </c>
       <c r="Q3">
-        <v>0.001866995872</v>
+        <v>0.004224958624</v>
       </c>
       <c r="R3">
-        <v>0.016802962848</v>
+        <v>0.038024627616</v>
       </c>
       <c r="S3">
-        <v>0.005976663605872625</v>
+        <v>0.002388590529788051</v>
       </c>
       <c r="T3">
-        <v>0.005976663605872626</v>
+        <v>0.002388590529788052</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -661,46 +661,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.01130033333333333</v>
+        <v>0.02557233333333333</v>
       </c>
       <c r="H4">
-        <v>0.033901</v>
+        <v>0.07671699999999999</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.6935308900902204</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.6935308900902204</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.4850956666666666</v>
+        <v>0.4441646666666667</v>
       </c>
       <c r="N4">
-        <v>1.455287</v>
+        <v>1.332494</v>
       </c>
       <c r="O4">
-        <v>0.01754826176843153</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="P4">
-        <v>0.01754826176843154</v>
+        <v>0.009259079236881667</v>
       </c>
       <c r="Q4">
-        <v>0.005481742731888888</v>
+        <v>0.01135832691088889</v>
       </c>
       <c r="R4">
-        <v>0.04933568458699999</v>
+        <v>0.102224942198</v>
       </c>
       <c r="S4">
-        <v>0.01754826176843153</v>
+        <v>0.006421457464570421</v>
       </c>
       <c r="T4">
-        <v>0.01754826176843154</v>
+        <v>0.006421457464570421</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,10 +708,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
         <v>25</v>
@@ -723,16 +723,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.01130033333333333</v>
+        <v>0.02557233333333333</v>
       </c>
       <c r="H5">
-        <v>0.033901</v>
+        <v>0.07671699999999999</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.6935308900902204</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.6935308900902204</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.843715</v>
+        <v>6.446186333333333</v>
       </c>
       <c r="N5">
-        <v>17.531145</v>
+        <v>19.338559</v>
       </c>
       <c r="O5">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="P5">
-        <v>0.2113954990048902</v>
+        <v>0.1343775282351073</v>
       </c>
       <c r="Q5">
-        <v>0.066035927405</v>
+        <v>0.1648440256447778</v>
       </c>
       <c r="R5">
-        <v>0.594323346645</v>
+        <v>1.483596230803</v>
       </c>
       <c r="S5">
-        <v>0.2113954990048902</v>
+        <v>0.09319496676501768</v>
       </c>
       <c r="T5">
-        <v>0.2113954990048902</v>
+        <v>0.09319496676501771</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01130033333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.033901</v>
+      </c>
+      <c r="I6">
+        <v>0.3064691099097797</v>
+      </c>
+      <c r="J6">
+        <v>0.3064691099097796</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>40.91514966666667</v>
+      </c>
+      <c r="N6">
+        <v>122.745449</v>
+      </c>
+      <c r="O6">
+        <v>0.8529192913871414</v>
+      </c>
+      <c r="P6">
+        <v>0.8529192913871415</v>
+      </c>
+      <c r="Q6">
+        <v>0.4623548296165557</v>
+      </c>
+      <c r="R6">
+        <v>4.161193466549</v>
+      </c>
+      <c r="S6">
+        <v>0.2613934160562972</v>
+      </c>
+      <c r="T6">
+        <v>0.2613934160562972</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01130033333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.033901</v>
+      </c>
+      <c r="I7">
+        <v>0.3064691099097797</v>
+      </c>
+      <c r="J7">
+        <v>0.3064691099097796</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.165216</v>
+      </c>
+      <c r="N7">
+        <v>0.495648</v>
+      </c>
+      <c r="O7">
+        <v>0.00344410114086962</v>
+      </c>
+      <c r="P7">
+        <v>0.003444101140869621</v>
+      </c>
+      <c r="Q7">
+        <v>0.001866995872</v>
+      </c>
+      <c r="R7">
+        <v>0.016802962848</v>
+      </c>
+      <c r="S7">
+        <v>0.001055510611081569</v>
+      </c>
+      <c r="T7">
+        <v>0.001055510611081569</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01130033333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.033901</v>
+      </c>
+      <c r="I8">
+        <v>0.3064691099097797</v>
+      </c>
+      <c r="J8">
+        <v>0.3064691099097796</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.4441646666666667</v>
+      </c>
+      <c r="N8">
+        <v>1.332494</v>
+      </c>
+      <c r="O8">
+        <v>0.009259079236881667</v>
+      </c>
+      <c r="P8">
+        <v>0.009259079236881667</v>
+      </c>
+      <c r="Q8">
+        <v>0.005019208788222223</v>
+      </c>
+      <c r="R8">
+        <v>0.045172879094</v>
+      </c>
+      <c r="S8">
+        <v>0.002837621772311246</v>
+      </c>
+      <c r="T8">
+        <v>0.002837621772311246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01130033333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.033901</v>
+      </c>
+      <c r="I9">
+        <v>0.3064691099097797</v>
+      </c>
+      <c r="J9">
+        <v>0.3064691099097796</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>6.446186333333333</v>
+      </c>
+      <c r="N9">
+        <v>19.338559</v>
+      </c>
+      <c r="O9">
+        <v>0.1343775282351073</v>
+      </c>
+      <c r="P9">
+        <v>0.1343775282351073</v>
+      </c>
+      <c r="Q9">
+        <v>0.07284405429544445</v>
+      </c>
+      <c r="R9">
+        <v>0.655596488659</v>
+      </c>
+      <c r="S9">
+        <v>0.04118256147008961</v>
+      </c>
+      <c r="T9">
+        <v>0.04118256147008962</v>
       </c>
     </row>
   </sheetData>
